--- a/ContactFormData.xlsx
+++ b/ContactFormData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ivana/Desktop/ITBootcamp/zavrsniPROJEKAT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B4A21D3-60A5-EE4A-8229-5623F2FC57AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{166A4322-B050-4946-9D14-BA00DE0D35FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13880" yWindow="460" windowWidth="14540" windowHeight="16400" xr2:uid="{6B8ADFBC-BB9A-AB4F-84B4-C3103DEE62A6}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="47">
   <si>
     <t>SubjectHeading</t>
   </si>
@@ -157,13 +157,16 @@
     <t>20000000</t>
   </si>
   <si>
-    <t>marmoko@abc.com</t>
-  </si>
-  <si>
     <t>294053202</t>
   </si>
   <si>
     <t>Ne moze bez poruke</t>
+  </si>
+  <si>
+    <t>marmoko@ABC.COM</t>
+  </si>
+  <si>
+    <t>200000004</t>
   </si>
 </sst>
 </file>
@@ -536,7 +539,7 @@
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -583,7 +586,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
@@ -608,7 +611,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>15</v>
@@ -653,7 +656,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D8" t="s">
         <v>7</v>
@@ -894,7 +897,7 @@
         <v>35</v>
       </c>
       <c r="D25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">

--- a/ContactFormData.xlsx
+++ b/ContactFormData.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ivana/Desktop/ITBootcamp/zavrsniPROJEKAT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{166A4322-B050-4946-9D14-BA00DE0D35FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D03570E-CCB5-A24D-B513-BDD2E83681DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13880" yWindow="460" windowWidth="14540" windowHeight="16400" xr2:uid="{6B8ADFBC-BB9A-AB4F-84B4-C3103DEE62A6}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="104">
   <si>
     <t>SubjectHeading</t>
   </si>
@@ -157,23 +157,194 @@
     <t>20000000</t>
   </si>
   <si>
-    <t>294053202</t>
-  </si>
-  <si>
-    <t>Ne moze bez poruke</t>
-  </si>
-  <si>
-    <t>marmoko@ABC.COM</t>
-  </si>
-  <si>
-    <t>200000004</t>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>cgrenshields0@xinhuanet.com</t>
+  </si>
+  <si>
+    <t>massa id nisl venenatis lacinia aenean sit amet justo morbi ut odio cras</t>
+  </si>
+  <si>
+    <t>amcgorman1@go.com</t>
+  </si>
+  <si>
+    <t>cras pellentesque volutpat dui maecenas tristique est et tempus semper est quam pharetra magna ac consequat metus sapien ut nunc</t>
+  </si>
+  <si>
+    <t>cohern2@ning.com</t>
+  </si>
+  <si>
+    <t>facilisi cras non velit nec nisi vulputate nonummy maecenas tincidunt lacus at velit vivamus vel nulla eget eros elementum</t>
+  </si>
+  <si>
+    <t>oarkle3@comsenz.com</t>
+  </si>
+  <si>
+    <t>erat id mauris vulputate elementum nullam varius nulla facilisi cras non velit nec nisi vulputate nonummy</t>
+  </si>
+  <si>
+    <t>kmaber4@state.gov</t>
+  </si>
+  <si>
+    <t>metus vitae ipsum aliquam non mauris morbi non lectus aliquam sit amet diam in magna bibendum imperdiet nullam</t>
+  </si>
+  <si>
+    <t>cdelea5@pen.io</t>
+  </si>
+  <si>
+    <t>nulla ultrices aliquet maecenas leo odio condimentum id luctus nec molestie sed justo pellentesque viverra pede</t>
+  </si>
+  <si>
+    <t>sfairlam6@sitemeter.com</t>
+  </si>
+  <si>
+    <t>nunc commodo placerat praesent blandit nam nulla integer pede justo</t>
+  </si>
+  <si>
+    <t>oyekel7@sun.com</t>
+  </si>
+  <si>
+    <t>id lobortis convallis tortor risus dapibus augue vel accumsan tellus</t>
+  </si>
+  <si>
+    <t>bshadfourth8@dyndns.org</t>
+  </si>
+  <si>
+    <t>nisi nam ultrices libero non mattis pulvinar nulla pede ullamcorper augue a suscipit nulla elit ac nulla sed vel enim</t>
+  </si>
+  <si>
+    <t>agiacobazzi9@woothemes.com</t>
+  </si>
+  <si>
+    <t>turpis adipiscing lorem vitae mattis nibh ligula nec sem duis aliquam convallis nunc proin at turpis a pede posuere</t>
+  </si>
+  <si>
+    <t>mmcmurrayaa@cbslocal.com</t>
+  </si>
+  <si>
+    <t>justo sit amet sapien dignissim vestibulum vestibulum ante ipsum primis in faucibus orci luctus et ultrices posuere cubilia curae nulla</t>
+  </si>
+  <si>
+    <t>zbutchartb@tmall.com</t>
+  </si>
+  <si>
+    <t>quam pede lobortis ligula sit amet eleifend pede libero quis orci nullam molestie nibh in lectus</t>
+  </si>
+  <si>
+    <t>kphythonc@wunderground.com</t>
+  </si>
+  <si>
+    <t>quam turpis adipiscing lorem vitae mattis nibh ligula nec sem duis aliquam convallis nunc proin at turpis</t>
+  </si>
+  <si>
+    <t>fhinderd@xinhuanet.com</t>
+  </si>
+  <si>
+    <t>ultrices posuere cubilia curae donec pharetra magna vestibulum aliquet ultrices</t>
+  </si>
+  <si>
+    <t>mmessruthere@meetup.com</t>
+  </si>
+  <si>
+    <t>potenti in eleifend quam a odio in hac habitasse platea dictumst</t>
+  </si>
+  <si>
+    <t>dmcgebenayf@technorati.com</t>
+  </si>
+  <si>
+    <t>sapien arcu sed augue aliquam erat volutpat in congue etiam justo etiam pretium iaculis justo in hac habitasse</t>
+  </si>
+  <si>
+    <t>mwittong@qq.com</t>
+  </si>
+  <si>
+    <t>varius ut blandit non interdum in ante vestibulum ante ipsum primis in</t>
+  </si>
+  <si>
+    <t>ecashh@tamu.edu</t>
+  </si>
+  <si>
+    <t>non mi integer ac neque duis bibendum morbi non quam nec dui luctus rutrum nulla tellus in sagittis</t>
+  </si>
+  <si>
+    <t>aantoonsi@nymag.com</t>
+  </si>
+  <si>
+    <t>justo nec condimentum neque sapien placerat ante nulla justo aliquam quis turpis eget elit sodales scelerisque mauris</t>
+  </si>
+  <si>
+    <t>kcomfortj@smh.com.au</t>
+  </si>
+  <si>
+    <t>in felis donec semper sapien a libero nam dui proin leo</t>
+  </si>
+  <si>
+    <t>jpiotrkowskik@51.la</t>
+  </si>
+  <si>
+    <t>ut blandit non interdum in ante vestibulum ante ipsum primis</t>
+  </si>
+  <si>
+    <t>bashbornl@xing.com</t>
+  </si>
+  <si>
+    <t>dictumst morbi vestibulum velit id pretium iaculis diam erat fermentum justo nec condimentum neque</t>
+  </si>
+  <si>
+    <t>ctrollopem@goodreads.com</t>
+  </si>
+  <si>
+    <t>vel nulla eget eros elementum pellentesque quisque porta volutpat erat quisque erat eros viverra eget congue</t>
+  </si>
+  <si>
+    <t>rgyngelln@networkadvertising.org</t>
+  </si>
+  <si>
+    <t>suscipit ligula in lacus curabitur at ipsum ac tellus semper interdum</t>
+  </si>
+  <si>
+    <t>gterbruggeo@t-online.de</t>
+  </si>
+  <si>
+    <t>vel nisl duis ac nibh fusce lacus purus aliquet at feugiat non pretium quis lectus</t>
+  </si>
+  <si>
+    <t>amacfadyenp@bizjournals.com</t>
+  </si>
+  <si>
+    <t>a libero nam dui proin leo odio porttitor id consequat in consequat ut nulla sed</t>
+  </si>
+  <si>
+    <t>jcottemq@naver.com</t>
+  </si>
+  <si>
+    <t>eget massa tempor convallis nulla neque libero convallis eget eleifend luctus ultricies eu nibh quisque id justo sit</t>
+  </si>
+  <si>
+    <t>mcahillaner@sourceforge.net</t>
+  </si>
+  <si>
+    <t>purus eu magna vulputate luctus cum sociis natoque penatibus et magnis dis parturient montes nascetur ridiculus mus vivamus</t>
+  </si>
+  <si>
+    <t>aohearns@imageshack.us</t>
+  </si>
+  <si>
+    <t>amet turpis elementum ligula vehicula consequat morbi a ipsum integer a nibh in quis justo maecenas rhoncus aliquam lacus</t>
+  </si>
+  <si>
+    <t>tgyset@typepad.com</t>
+  </si>
+  <si>
+    <t>lectus aliquam sit amet diam in magna bibendum imperdiet nullam orci</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -185,12 +356,6 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -535,19 +700,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6317E64D-95FB-994A-A888-3413840F3E67}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F660B2E-17BD-B94E-9ED0-480E4B19204E}">
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="24.33203125" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="74.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -555,9 +717,9 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
@@ -568,437 +730,428 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
+      <c r="B2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2">
+        <v>1072982</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="B3" t="s">
         <v>46</v>
       </c>
+      <c r="C3">
+        <v>1395378</v>
+      </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>12</v>
+      <c r="B4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4">
+        <v>2020675</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>15</v>
+      <c r="B5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5">
+        <v>5082001</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>16</v>
+      <c r="B6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6">
+        <v>8255404</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>17</v>
+      <c r="B7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7">
+        <v>2016886</v>
       </c>
       <c r="D7" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>43</v>
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8">
+        <v>4930260</v>
       </c>
       <c r="D8" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>19</v>
+      <c r="B9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9">
+        <v>3466787</v>
       </c>
       <c r="D9" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>20</v>
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10">
+        <v>4470583</v>
       </c>
       <c r="D10" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>21</v>
+      <c r="B11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11">
+        <v>534613</v>
       </c>
       <c r="D11" t="s">
-        <v>7</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>22</v>
+      <c r="B12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12">
+        <v>5888197</v>
       </c>
       <c r="D12" t="s">
-        <v>7</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>23</v>
+      <c r="B13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13">
+        <v>5281854</v>
       </c>
       <c r="D13" t="s">
-        <v>7</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>24</v>
+      <c r="B14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14">
+        <v>5424598</v>
       </c>
       <c r="D14" t="s">
-        <v>7</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>25</v>
+        <v>8</v>
+      </c>
+      <c r="B15" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15">
+        <v>2070789</v>
       </c>
       <c r="D15" t="s">
-        <v>7</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>26</v>
+      <c r="B16" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16">
+        <v>2056737</v>
       </c>
       <c r="D16" t="s">
-        <v>7</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>27</v>
+      <c r="B17" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17">
+        <v>3872059</v>
       </c>
       <c r="D17" t="s">
-        <v>7</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>28</v>
+      <c r="B18" t="s">
+        <v>76</v>
+      </c>
+      <c r="C18">
+        <v>5170642</v>
       </c>
       <c r="D18" t="s">
-        <v>7</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>29</v>
+      <c r="B19" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19">
+        <v>6457947</v>
       </c>
       <c r="D19" t="s">
-        <v>7</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>30</v>
+        <v>8</v>
+      </c>
+      <c r="B20" t="s">
+        <v>80</v>
+      </c>
+      <c r="C20">
+        <v>5860821</v>
       </c>
       <c r="D20" t="s">
-        <v>7</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>31</v>
+        <v>8</v>
+      </c>
+      <c r="B21" t="s">
+        <v>82</v>
+      </c>
+      <c r="C21">
+        <v>9379575</v>
       </c>
       <c r="D21" t="s">
-        <v>7</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>4</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>32</v>
+      <c r="B22" t="s">
+        <v>84</v>
+      </c>
+      <c r="C22">
+        <v>8726246</v>
       </c>
       <c r="D22" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>4</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>33</v>
+      <c r="B23" t="s">
+        <v>86</v>
+      </c>
+      <c r="C23">
+        <v>9186332</v>
       </c>
       <c r="D23" t="s">
-        <v>7</v>
+        <v>87</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>4</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>34</v>
+      <c r="B24" t="s">
+        <v>88</v>
+      </c>
+      <c r="C24">
+        <v>2677587</v>
       </c>
       <c r="D24" t="s">
-        <v>7</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>4</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>35</v>
+      <c r="B25" t="s">
+        <v>90</v>
+      </c>
+      <c r="C25">
+        <v>2357270</v>
       </c>
       <c r="D25" t="s">
-        <v>44</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>4</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>36</v>
+        <v>8</v>
+      </c>
+      <c r="B26" t="s">
+        <v>92</v>
+      </c>
+      <c r="C26">
+        <v>7581403</v>
       </c>
       <c r="D26" t="s">
-        <v>7</v>
+        <v>93</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>4</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>37</v>
+      <c r="B27" t="s">
+        <v>94</v>
+      </c>
+      <c r="C27">
+        <v>8853311</v>
       </c>
       <c r="D27" t="s">
-        <v>7</v>
+        <v>95</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>4</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>38</v>
+      <c r="B28" t="s">
+        <v>96</v>
+      </c>
+      <c r="C28">
+        <v>6355194</v>
       </c>
       <c r="D28" t="s">
-        <v>7</v>
+        <v>97</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>4</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>39</v>
+      <c r="B29" t="s">
+        <v>98</v>
+      </c>
+      <c r="C29">
+        <v>1715373</v>
       </c>
       <c r="D29" t="s">
-        <v>7</v>
+        <v>99</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>4</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>40</v>
+      <c r="B30" t="s">
+        <v>100</v>
+      </c>
+      <c r="C30">
+        <v>8924616</v>
       </c>
       <c r="D30" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>4</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>41</v>
+      <c r="B31" t="s">
+        <v>102</v>
+      </c>
+      <c r="C31">
+        <v>2779368</v>
       </c>
       <c r="D31" t="s">
-        <v>7</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A31" xr:uid="{DCA242F7-976F-2C4B-8CFB-30006BCAB5A8}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A31" xr:uid="{35855B09-D61D-1A4B-A865-29EC792E642F}">
       <formula1>"Customer service, Webmaster"</formula1>
     </dataValidation>
   </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{19037748-4F52-504B-9038-98BF7B13AA6F}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{DA6103F9-869F-2640-9279-45BAF7566736}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{B52F0AB0-81E3-3248-A56F-821EDA79B3EA}"/>
-    <hyperlink ref="B6" r:id="rId4" xr:uid="{BD31951B-5852-DF42-A8BD-0BE9C7B3D416}"/>
-    <hyperlink ref="B7:B31" r:id="rId5" display="marko@abc.com" xr:uid="{784C6DCE-3FD8-4B48-93AF-7122A85BAF45}"/>
-    <hyperlink ref="B5" r:id="rId6" xr:uid="{AE322C4C-85AE-2C4D-843E-34D14555396B}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
